--- a/biology/Zoologie/Dissorophoidea/Dissorophoidea.xlsx
+++ b/biology/Zoologie/Dissorophoidea/Dissorophoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">dissophoridiens
 Les Dissorophoidea (dissophoridiens en français) sont une super-famille d'amphibiens fossiles de taille moyenne de l'ordre des Temnospondyli. Ils sont apparus à la fin du Pennsylvanien en Euramérique et ont vécu jusqu'à la fin du Permien et même peut-être jusqu'au du Trias, au Gondwana (si le genre Micropholis lui appartient). Ils se caractérisent par divers détails du crâne, et de nombreuses formes semblent avoir été bien adaptées à la vie sur terre.
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a suggéré qu'ils pourraient être les ancêtres des grenouilles (Reisz, sans date) ou encore des lissamphibiens auquel cas ces derniers seraient inclus dans ce clade, mais cette hypothèse demeure discutée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a suggéré qu'ils pourraient être les ancêtres des grenouilles (Reisz, sans date) ou encore des lissamphibiens auquel cas ces derniers seraient inclus dans ce clade, mais cette hypothèse demeure discutée.
 Il est possible que les petits Micromelerpetontidae du Permo-Carbonifère et les grands Melosauridae de la fin du Permien puissent aussi appartenir à ce clade.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (23 juillet 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (23 juillet 2021) :
 † famille des Amphibamidae
 † famille des Dissorophidae Boulenger, 1902
 † famille des Doleserpetontidae
@@ -580,9 +596,11 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous le cladogramme de la super-famille des Dissorophoidea, effectué en 2013 par Holmes et al.[3], et en utilisant la matrice de données de l'analyse phylogénétique de 2012 de Rainer R. Schoch (d)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous le cladogramme de la super-famille des Dissorophoidea, effectué en 2013 par Holmes et al., et en utilisant la matrice de données de l'analyse phylogénétique de 2012 de Rainer R. Schoch (d).
 </t>
         </is>
       </c>
